--- a/HPA/job.xlsx
+++ b/HPA/job.xlsx
@@ -17,27 +17,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>BrandName</t>
-  </si>
-  <si>
-    <t>BrandLocation</t>
-  </si>
-  <si>
-    <t>Hecs</t>
-  </si>
-  <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>BusinessEmail</t>
-  </si>
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>Media</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>openCall</t>
+  </si>
+  <si>
+    <t>interviewQuestion</t>
+  </si>
+  <si>
+    <t>trackingUrl</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>skill1|skill2|skill3|skill4</t>
+  </si>
+  <si>
+    <t>part|full|anytime</t>
   </si>
 </sst>
 </file>
@@ -379,7 +403,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +420,7 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="28.140625" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -420,8 +445,45 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123123</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>132312</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25"/>

--- a/HPA/job.xlsx
+++ b/HPA/job.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21030" windowHeight="3360"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="1" r:id="rId1"/>
     <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>brand</t>
   </si>
@@ -62,13 +62,31 @@
   </si>
   <si>
     <t>part|full|anytime</t>
+  </si>
+  <si>
+    <t>Samoa Americana</t>
+  </si>
+  <si>
+    <t>Bartnder</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>skill1|skill2|</t>
+  </si>
+  <si>
+    <t>part|</t>
+  </si>
+  <si>
+    <t>open| | | |</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -223,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -423,7 +439,7 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>123123</v>
       </c>
@@ -484,36 +500,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15"/>
+    <row r="5" spans="1:15"/>
+    <row r="6" spans="1:15"/>
+    <row r="7" spans="1:15"/>
+    <row r="8" spans="1:15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
